--- a/data/formatted/basicdata200304.xlsx
+++ b/data/formatted/basicdata200304.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petri\Documents\CS-4641\machine-learning-madness\data\formatted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCBE3B7-8F46-4422-84A4-2231D20A246A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9394E6B-83CE-47C7-8E8B-28DF66824E32}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2430" yWindow="2420" windowWidth="11520" windowHeight="6000" xr2:uid="{315AC664-40DE-4F51-82F9-AD900175BA1A}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{315AC664-40DE-4F51-82F9-AD900175BA1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/data/formatted/basicdata200304.xlsx
+++ b/data/formatted/basicdata200304.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petri\Documents\CS-4641\machine-learning-madness\data\formatted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9394E6B-83CE-47C7-8E8B-28DF66824E32}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841DF57B-1095-44B1-9DFE-8F4C7D8F5D0B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{315AC664-40DE-4F51-82F9-AD900175BA1A}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7360" xr2:uid="{315AC664-40DE-4F51-82F9-AD900175BA1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/data/formatted/basicdata200304.xlsx
+++ b/data/formatted/basicdata200304.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petri\Documents\CS-4641\machine-learning-madness\data\formatted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841DF57B-1095-44B1-9DFE-8F4C7D8F5D0B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543DCD61-4498-42A4-9517-2E924472BA65}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7360" xr2:uid="{315AC664-40DE-4F51-82F9-AD900175BA1A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{315AC664-40DE-4F51-82F9-AD900175BA1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,199 +114,199 @@
     <t>PersonalFouls</t>
   </si>
   <si>
-    <t>Air Force NCAA</t>
-  </si>
-  <si>
-    <t>Alabama-Birmingham NCAA</t>
-  </si>
-  <si>
-    <t>Alabama State NCAA</t>
-  </si>
-  <si>
-    <t>Alabama NCAA</t>
-  </si>
-  <si>
-    <t>Arizona NCAA</t>
-  </si>
-  <si>
-    <t>Boston College NCAA</t>
-  </si>
-  <si>
-    <t>Brigham Young NCAA</t>
-  </si>
-  <si>
-    <t>Central Florida NCAA</t>
-  </si>
-  <si>
-    <t>Charlotte NCAA</t>
-  </si>
-  <si>
-    <t>Cincinnati NCAA</t>
-  </si>
-  <si>
-    <t>Connecticut NCAA</t>
-  </si>
-  <si>
-    <t>Dayton NCAA</t>
-  </si>
-  <si>
-    <t>DePaul NCAA</t>
-  </si>
-  <si>
-    <t>Duke NCAA</t>
-  </si>
-  <si>
-    <t>East Tennessee State NCAA</t>
-  </si>
-  <si>
-    <t>Eastern Washington NCAA</t>
-  </si>
-  <si>
-    <t>Florida A&amp;M NCAA</t>
-  </si>
-  <si>
-    <t>Florida NCAA</t>
-  </si>
-  <si>
-    <t>Georgia Tech NCAA</t>
-  </si>
-  <si>
-    <t>Gonzaga NCAA</t>
-  </si>
-  <si>
-    <t>Illinois-Chicago NCAA</t>
-  </si>
-  <si>
-    <t>Illinois NCAA</t>
-  </si>
-  <si>
-    <t>Kansas NCAA</t>
-  </si>
-  <si>
-    <t>Kentucky NCAA</t>
-  </si>
-  <si>
-    <t>Lehigh NCAA</t>
-  </si>
-  <si>
-    <t>Liberty NCAA</t>
-  </si>
-  <si>
-    <t>Louisiana NCAA</t>
-  </si>
-  <si>
-    <t>Louisville NCAA</t>
-  </si>
-  <si>
-    <t>Manhattan NCAA</t>
-  </si>
-  <si>
-    <t>Maryland NCAA</t>
-  </si>
-  <si>
-    <t>Memphis NCAA</t>
-  </si>
-  <si>
-    <t>Michigan State NCAA</t>
-  </si>
-  <si>
-    <t>Mississippi State NCAA</t>
-  </si>
-  <si>
-    <t>Monmouth NCAA</t>
-  </si>
-  <si>
-    <t>Murray State NCAA</t>
-  </si>
-  <si>
-    <t>Nevada NCAA</t>
-  </si>
-  <si>
-    <t>North Carolina State NCAA</t>
-  </si>
-  <si>
-    <t>North Carolina NCAA</t>
-  </si>
-  <si>
-    <t>Northern Iowa NCAA</t>
-  </si>
-  <si>
-    <t>Oklahoma State NCAA</t>
-  </si>
-  <si>
-    <t>Pacific NCAA</t>
-  </si>
-  <si>
-    <t>Pittsburgh NCAA</t>
-  </si>
-  <si>
-    <t>Princeton NCAA</t>
-  </si>
-  <si>
-    <t>Providence NCAA</t>
-  </si>
-  <si>
-    <t>Richmond NCAA</t>
-  </si>
-  <si>
-    <t>Saint Joseph's NCAA</t>
-  </si>
-  <si>
-    <t>Seton Hall NCAA</t>
-  </si>
-  <si>
-    <t>South Carolina NCAA</t>
-  </si>
-  <si>
-    <t>Southern Illinois NCAA</t>
-  </si>
-  <si>
-    <t>Stanford NCAA</t>
-  </si>
-  <si>
-    <t>Syracuse NCAA</t>
-  </si>
-  <si>
-    <t>Texas-El Paso NCAA</t>
-  </si>
-  <si>
-    <t>Texas-San Antonio NCAA</t>
-  </si>
-  <si>
-    <t>Texas Tech NCAA</t>
-  </si>
-  <si>
-    <t>Texas NCAA</t>
-  </si>
-  <si>
-    <t>Utah NCAA</t>
-  </si>
-  <si>
-    <t>Valparaiso NCAA</t>
-  </si>
-  <si>
-    <t>Vanderbilt NCAA</t>
-  </si>
-  <si>
-    <t>Vermont NCAA</t>
-  </si>
-  <si>
-    <t>Virginia Commonwealth NCAA</t>
-  </si>
-  <si>
-    <t>Wake Forest NCAA</t>
-  </si>
-  <si>
-    <t>Washington NCAA</t>
-  </si>
-  <si>
-    <t>Western Michigan NCAA</t>
-  </si>
-  <si>
-    <t>Wisconsin NCAA</t>
-  </si>
-  <si>
-    <t>Xavier NCAA</t>
+    <t>Air Force</t>
+  </si>
+  <si>
+    <t>Alabama-Birmingham</t>
+  </si>
+  <si>
+    <t>Alabama State</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Boston College</t>
+  </si>
+  <si>
+    <t>Brigham Young</t>
+  </si>
+  <si>
+    <t>Central Florida</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>Cincinnati</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>Dayton</t>
+  </si>
+  <si>
+    <t>DePaul</t>
+  </si>
+  <si>
+    <t>Duke</t>
+  </si>
+  <si>
+    <t>East Tennessee State</t>
+  </si>
+  <si>
+    <t>Eastern Washington</t>
+  </si>
+  <si>
+    <t>Florida A&amp;M</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Georgia Tech</t>
+  </si>
+  <si>
+    <t>Gonzaga</t>
+  </si>
+  <si>
+    <t>Illinois-Chicago</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Lehigh</t>
+  </si>
+  <si>
+    <t>Liberty</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>Louisville</t>
+  </si>
+  <si>
+    <t>Manhattan</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>Memphis</t>
+  </si>
+  <si>
+    <t>Michigan State</t>
+  </si>
+  <si>
+    <t>Mississippi State</t>
+  </si>
+  <si>
+    <t>Monmouth</t>
+  </si>
+  <si>
+    <t>Murray State</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>North Carolina State</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>Northern Iowa</t>
+  </si>
+  <si>
+    <t>Oklahoma State</t>
+  </si>
+  <si>
+    <t>Pacific</t>
+  </si>
+  <si>
+    <t>Pittsburgh</t>
+  </si>
+  <si>
+    <t>Princeton</t>
+  </si>
+  <si>
+    <t>Providence</t>
+  </si>
+  <si>
+    <t>Richmond</t>
+  </si>
+  <si>
+    <t>Saint Joseph's</t>
+  </si>
+  <si>
+    <t>Seton Hall</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>Southern Illinois</t>
+  </si>
+  <si>
+    <t>Stanford</t>
+  </si>
+  <si>
+    <t>Syracuse</t>
+  </si>
+  <si>
+    <t>Texas-El Paso</t>
+  </si>
+  <si>
+    <t>Texas-San Antonio</t>
+  </si>
+  <si>
+    <t>Texas Tech</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Valparaiso</t>
+  </si>
+  <si>
+    <t>Vanderbilt</t>
+  </si>
+  <si>
+    <t>Vermont</t>
+  </si>
+  <si>
+    <t>Virginia Commonwealth</t>
+  </si>
+  <si>
+    <t>Wake Forest</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Western Michigan</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>Xavier</t>
   </si>
 </sst>
 </file>
@@ -661,7 +661,7 @@
   <dimension ref="A1:AA66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AA66"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
